--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/VIRGINIA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/VIRGINIA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1043"/>
+  <dimension ref="A1:D1037"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -693,7 +693,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C24">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C26">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C33">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C51">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C52">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C57">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C63">
@@ -1569,7 +1569,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C91">
@@ -1621,7 +1621,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C95">
@@ -1769,7 +1769,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C106">
@@ -1878,7 +1878,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1935,7 +1935,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C118">
@@ -2239,7 +2239,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C141">
@@ -2343,12 +2343,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C149">
@@ -2374,7 +2374,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C151">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C152">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C155">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C161">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C164">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C167">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C176">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C180">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C195">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C199">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C200">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C201">
@@ -3159,7 +3159,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C211">
@@ -3172,7 +3172,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C212">
@@ -3263,7 +3263,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C219">
@@ -3315,7 +3315,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C223">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C232">
@@ -3458,7 +3458,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C234">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C236">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C237">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C242">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C247">
@@ -3658,7 +3658,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C249">
@@ -3671,7 +3671,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C250">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C252">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C254">
@@ -3736,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C255">
@@ -3749,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C256">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C257">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C258">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C262">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C266">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C269">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C270">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C273">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C276">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C288">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C290">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C293">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C297">
@@ -4495,7 +4495,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C313">
@@ -4534,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C316">
@@ -4599,7 +4599,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C321">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C322">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C324">
@@ -4651,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C325">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C326">
@@ -4703,7 +4703,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C329">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C336">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C337">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C340">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C345">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C347">
@@ -5033,7 +5033,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C354">
@@ -5059,7 +5059,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C356">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C357">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C367">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C371">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C378">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C381">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C384">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C385">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C386">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C388">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C390">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C393">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C394">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C399">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C400">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C404">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C405">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C407">
@@ -6694,7 +6694,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C481">
@@ -6759,7 +6759,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C486">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C493">
@@ -6894,7 +6894,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C496">
@@ -6946,7 +6946,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C500">
@@ -7094,7 +7094,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C511">
@@ -7107,7 +7107,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C512">
@@ -7133,7 +7133,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C514">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C516">
@@ -7190,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C518">
@@ -7216,7 +7216,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C520">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C522">
@@ -7255,7 +7255,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C523">
@@ -7268,7 +7268,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C524">
@@ -7294,7 +7294,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C526">
@@ -7307,7 +7307,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C527">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C528">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C531">
@@ -7372,7 +7372,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C532">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C534">
@@ -7437,7 +7437,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C537">
@@ -7463,7 +7463,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C539">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C540">
@@ -7489,7 +7489,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C541">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C548">
@@ -7632,7 +7632,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C552">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C563">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C583">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C587">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C593">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C606">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C650">
@@ -9036,7 +9036,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C660">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C662">
@@ -9075,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C663">
@@ -9088,7 +9088,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C664">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C665">
@@ -9114,7 +9114,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C666">
@@ -9127,7 +9127,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C667">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C670">
@@ -9179,7 +9179,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C671">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C672">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C673">
@@ -9218,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C674">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C676">
@@ -9496,7 +9496,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C695">
@@ -9522,7 +9522,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C697">
@@ -9639,7 +9639,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C706">
@@ -9717,7 +9717,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C712">
@@ -9808,7 +9808,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C719">
@@ -9886,7 +9886,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C725">
@@ -10055,7 +10055,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C738">
@@ -10133,7 +10133,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C744">
@@ -10146,7 +10146,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C745">
@@ -10172,7 +10172,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C747">
@@ -10302,7 +10302,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C757">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C770">
@@ -10502,7 +10502,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C772">
@@ -10554,7 +10554,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C776">
@@ -10567,7 +10567,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C777">
@@ -10593,7 +10593,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C779">
@@ -10632,7 +10632,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C782">
@@ -10759,7 +10759,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C791">
@@ -10811,7 +10811,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C795">
@@ -10915,7 +10915,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C803">
@@ -10980,7 +10980,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C808">
@@ -11019,7 +11019,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C811">
@@ -11110,7 +11110,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C818">
@@ -11136,7 +11136,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C820">
@@ -11149,7 +11149,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C821">
@@ -11162,7 +11162,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C822">
@@ -11175,7 +11175,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C823">
@@ -11541,7 +11541,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C850">
@@ -11793,7 +11793,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C869">
@@ -11980,7 +11980,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C883">
@@ -12006,7 +12006,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C885">
@@ -12167,7 +12167,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C897">
@@ -12219,7 +12219,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C901">
@@ -12271,7 +12271,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C905">
@@ -12375,7 +12375,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C913">
@@ -12388,7 +12388,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C914">
@@ -12557,7 +12557,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C927">
@@ -12609,7 +12609,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C931">
@@ -12687,7 +12687,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C937">
@@ -12726,7 +12726,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C940">
@@ -12765,7 +12765,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C943">
@@ -12882,7 +12882,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C952">
@@ -12921,7 +12921,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C955">
@@ -13025,7 +13025,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C963">
@@ -13077,7 +13077,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C967">
@@ -13350,7 +13350,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C988">
@@ -13581,7 +13581,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1005">
@@ -13594,7 +13594,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1006">
@@ -13711,7 +13711,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1015">
@@ -13750,7 +13750,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1018">
@@ -13763,7 +13763,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1019">
@@ -13867,7 +13867,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1027">
@@ -13880,7 +13880,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1028">
@@ -13919,7 +13919,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1031">
@@ -14005,41 +14005,6 @@
       </c>
       <c r="D1037">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1039">
-      <c r="A1039" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1040">
-      <c r="A1040" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="A1041" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1042">
-      <c r="A1042" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1043">
-      <c r="A1043" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
